--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1031.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1031.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.55849009433696</v>
+        <v>1.200255632400513</v>
       </c>
       <c r="B1">
-        <v>3.525761380631604</v>
+        <v>1.168312907218933</v>
       </c>
       <c r="C1">
-        <v>2.968337892703496</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.346094262836086</v>
+        <v>2.033358097076416</v>
       </c>
       <c r="E1">
-        <v>1.329066746302909</v>
+        <v>0.9699259996414185</v>
       </c>
     </row>
   </sheetData>
